--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2155318.783007159</v>
+        <v>-2157639.856085253</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>217.5303482210153</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.574927718268578</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>193.4594147673099</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>154.9607192316006</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.2921891409929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,58 +823,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>228.5727417928316</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>114.6020536118652</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,13 +1026,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>176.0539074908585</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.0792724223796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>46.04811363038955</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1421,7 @@
         <v>119.2442400157278</v>
       </c>
       <c r="T11" t="n">
-        <v>205.8498289850886</v>
+        <v>205.8498289850884</v>
       </c>
       <c r="U11" t="n">
         <v>251.0304772033651</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3947739469271</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>29.45883285285275</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.37721064569882</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.2442400157278</v>
+        <v>119.2442400157274</v>
       </c>
       <c r="T14" t="n">
         <v>205.8498289850884</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>160.2582886041905</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T16" t="n">
         <v>220.3947739469271</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2226359673672</v>
+        <v>73.43003417766171</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>193.2189102119588</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3947739469271</v>
+        <v>187.4341523391587</v>
       </c>
       <c r="U19" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V19" t="n">
-        <v>151.9376643782469</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.2189102119588</v>
+        <v>160.2582886041905</v>
       </c>
       <c r="T22" t="n">
         <v>220.3947739469271</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.6240317443267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>251.0304772033651</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>193.2189102119588</v>
       </c>
       <c r="T25" t="n">
-        <v>220.3947739469271</v>
+        <v>7.602172157221473</v>
       </c>
       <c r="U25" t="n">
         <v>286.2226359673672</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.6240317443267</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>160.2582886041905</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3947739469271</v>
+        <v>79.67177542903531</v>
       </c>
       <c r="U28" t="n">
         <v>286.2226359673672</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>142.7935478529566</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.5150500802809</v>
+        <v>25.50221268264123</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3055863904067</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.83310760955523</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T31" t="n">
         <v>220.3947739469271</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.9031767071875</v>
+        <v>123.9031767071876</v>
       </c>
       <c r="C34" t="n">
         <v>111.3180176238781</v>
       </c>
       <c r="D34" t="n">
-        <v>92.68666954346259</v>
+        <v>92.68666954346261</v>
       </c>
       <c r="E34" t="n">
-        <v>90.5051591718194</v>
+        <v>90.50515917181943</v>
       </c>
       <c r="F34" t="n">
-        <v>89.49224454818147</v>
+        <v>89.4922445481815</v>
       </c>
       <c r="G34" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H34" t="n">
-        <v>90.58624660553113</v>
+        <v>90.58624660553116</v>
       </c>
       <c r="I34" t="n">
-        <v>46.37678291565689</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90430413480546</v>
+        <v>41.90430413480549</v>
       </c>
       <c r="S34" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T34" t="n">
         <v>164.4659704721774</v>
@@ -3244,10 +3244,10 @@
         <v>230.2938324926175</v>
       </c>
       <c r="V34" t="n">
-        <v>196.2088398490782</v>
+        <v>196.2088398490783</v>
       </c>
       <c r="W34" t="n">
-        <v>230.5941948618412</v>
+        <v>230.5941948618413</v>
       </c>
       <c r="X34" t="n">
         <v>169.7808519142874</v>
@@ -3284,7 +3284,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I35" t="n">
-        <v>2.661944262748811</v>
+        <v>2.661944262748818</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31543654097809</v>
+        <v>63.3154365409781</v>
       </c>
       <c r="T35" t="n">
         <v>149.9210255103387</v>
@@ -3323,7 +3323,7 @@
         <v>195.1016737286154</v>
       </c>
       <c r="V35" t="n">
-        <v>271.8234549953851</v>
+        <v>271.8234549953852</v>
       </c>
       <c r="W35" t="n">
         <v>293.3121652426632</v>
@@ -3332,7 +3332,7 @@
         <v>313.8022972037193</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.3091351813038</v>
+        <v>330.3091351813039</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>90.58624660553116</v>
       </c>
       <c r="I37" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90430413480548</v>
+        <v>41.90430413480549</v>
       </c>
       <c r="S37" t="n">
-        <v>137.2901067372091</v>
+        <v>137.2901067372093</v>
       </c>
       <c r="T37" t="n">
         <v>164.4659704721774</v>
@@ -3521,7 +3521,7 @@
         <v>243.1985838482993</v>
       </c>
       <c r="I38" t="n">
-        <v>2.661944262748783</v>
+        <v>2.66194426274879</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.31543654097806</v>
+        <v>63.31543654097807</v>
       </c>
       <c r="T38" t="n">
         <v>149.9210255103387</v>
@@ -3679,7 +3679,7 @@
         <v>90.58624660553113</v>
       </c>
       <c r="I40" t="n">
-        <v>46.37678291565688</v>
+        <v>46.37678291565689</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90430413480545</v>
+        <v>41.90430413480546</v>
       </c>
       <c r="S40" t="n">
         <v>137.290106737209</v>
@@ -3758,7 +3758,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I41" t="n">
-        <v>2.661944262748825</v>
+        <v>2.661944262747364</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.31543654097811</v>
+        <v>63.3154365409781</v>
       </c>
       <c r="T41" t="n">
         <v>149.9210255103387</v>
@@ -3901,22 +3901,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D43" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346263</v>
       </c>
       <c r="E43" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181944</v>
       </c>
       <c r="F43" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818152</v>
       </c>
       <c r="G43" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H43" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553117</v>
       </c>
       <c r="I43" t="n">
-        <v>46.37678291565692</v>
+        <v>46.37678291565694</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90430413480549</v>
+        <v>41.9043041348055</v>
       </c>
       <c r="S43" t="n">
         <v>137.2901067372091</v>
@@ -3964,7 +3964,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>350.9472422669617</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344931</v>
       </c>
       <c r="H44" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I44" t="n">
-        <v>2.661944262748818</v>
+        <v>2.661944262748804</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>195.1016737286154</v>
       </c>
       <c r="V44" t="n">
-        <v>271.8234549953852</v>
+        <v>271.8234549953851</v>
       </c>
       <c r="W44" t="n">
         <v>293.3121652426632</v>
@@ -4043,7 +4043,7 @@
         <v>313.8022972037193</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.3091351813039</v>
+        <v>330.3091351813038</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.9031767071876</v>
+        <v>123.9031767071875</v>
       </c>
       <c r="C46" t="n">
         <v>111.3180176238781</v>
       </c>
       <c r="D46" t="n">
-        <v>92.68666954346261</v>
+        <v>92.6866695434626</v>
       </c>
       <c r="E46" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181941</v>
       </c>
       <c r="F46" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818149</v>
       </c>
       <c r="G46" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H46" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553114</v>
       </c>
       <c r="I46" t="n">
-        <v>46.37678291565692</v>
+        <v>46.37678291565691</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90430413480549</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S46" t="n">
-        <v>137.2901067372091</v>
+        <v>137.290106737209</v>
       </c>
       <c r="T46" t="n">
         <v>164.4659704721774</v>
       </c>
       <c r="U46" t="n">
-        <v>230.2938324926175</v>
+        <v>230.2938324926174</v>
       </c>
       <c r="V46" t="n">
-        <v>196.2088398490783</v>
+        <v>196.2088398490782</v>
       </c>
       <c r="W46" t="n">
-        <v>230.5941948618413</v>
+        <v>230.5941948618412</v>
       </c>
       <c r="X46" t="n">
         <v>169.7808519142874</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>289.753870234227</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>289.753870234227</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>289.753870234227</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>46.30509359012693</v>
       </c>
       <c r="F2" t="n">
-        <v>247.340362388537</v>
+        <v>39.35959284092346</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>23.90228221957492</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>23.90228221957492</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90228221957492</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>533.2026468783271</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>289.753870234227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4419,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>627.7355178317791</v>
+        <v>807.5311764888174</v>
       </c>
       <c r="X3" t="n">
-        <v>419.8840176262463</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.1848366757484</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4522,16 +4522,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.2858631377404</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>254.2858631377404</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>254.2858631377404</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>254.2858631377404</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>254.2858631377404</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y5" t="n">
-        <v>254.2858631377404</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343.4227147053767</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>511.6380517254448</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>511.6380517254448</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>511.6380517254448</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W6" t="n">
-        <v>511.6380517254448</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X6" t="n">
-        <v>511.6380517254448</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y6" t="n">
-        <v>511.6380517254448</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2549444941228</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>521.2549444941228</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>372.3205348328715</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>213.083079827416</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>66.54852185430101</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>1014.612831184965</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.700568908834</v>
+        <v>1810.185171313779</v>
       </c>
       <c r="M11" t="n">
-        <v>2298.534633154004</v>
+        <v>2267.000837401045</v>
       </c>
       <c r="N11" t="n">
-        <v>3200.329317851334</v>
+        <v>2848.285495293143</v>
       </c>
       <c r="O11" t="n">
         <v>3654.637006335584</v>
@@ -5078,7 +5078,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X11" t="n">
         <v>3173.853105830131</v>
@@ -5118,25 +5118,25 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8536431234389</v>
+        <v>292.6837681104437</v>
       </c>
       <c r="K12" t="n">
-        <v>368.3701805684597</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L12" t="n">
-        <v>684.3119515961116</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.357964547036</v>
+        <v>1197.188089534041</v>
       </c>
       <c r="N12" t="n">
-        <v>1485.083045709571</v>
+        <v>1609.913170696576</v>
       </c>
       <c r="O12" t="n">
-        <v>1840.426067385092</v>
+        <v>1965.256192372097</v>
       </c>
       <c r="P12" t="n">
-        <v>2421.565244584132</v>
+        <v>2264.813679484683</v>
       </c>
       <c r="Q12" t="n">
         <v>2600.592059963695</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.1980707833014</v>
+        <v>3863.793627372464</v>
       </c>
       <c r="C13" t="n">
-        <v>96.26188785539451</v>
+        <v>3694.857444444557</v>
       </c>
       <c r="D13" t="n">
-        <v>96.26188785539451</v>
+        <v>3544.740805032221</v>
       </c>
       <c r="E13" t="n">
-        <v>96.26188785539451</v>
+        <v>3396.827711449828</v>
       </c>
       <c r="F13" t="n">
-        <v>96.26188785539451</v>
+        <v>3249.937763951918</v>
       </c>
       <c r="G13" t="n">
-        <v>96.26188785539451</v>
+        <v>3249.937763951918</v>
       </c>
       <c r="H13" t="n">
-        <v>96.26188785539451</v>
+        <v>3249.937763951918</v>
       </c>
       <c r="I13" t="n">
-        <v>96.26188785539451</v>
+        <v>3146.598787799992</v>
       </c>
       <c r="J13" t="n">
-        <v>127.528778430331</v>
+        <v>3177.865678374928</v>
       </c>
       <c r="K13" t="n">
-        <v>308.7467211677958</v>
+        <v>3359.083621112393</v>
       </c>
       <c r="L13" t="n">
-        <v>596.1697313207187</v>
+        <v>3646.506631265316</v>
       </c>
       <c r="M13" t="n">
-        <v>909.6061189417567</v>
+        <v>3959.943018886354</v>
       </c>
       <c r="N13" t="n">
-        <v>1221.024306251792</v>
+        <v>4271.36120619639</v>
       </c>
       <c r="O13" t="n">
-        <v>1492.653111212345</v>
+        <v>4542.990011156942</v>
       </c>
       <c r="P13" t="n">
-        <v>1701.557796953311</v>
+        <v>4751.894696897908</v>
       </c>
       <c r="Q13" t="n">
-        <v>1762.757492825128</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="R13" t="n">
-        <v>1762.757492825128</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S13" t="n">
-        <v>1567.586876449412</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="T13" t="n">
-        <v>1344.965892664637</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="U13" t="n">
-        <v>1055.852118960226</v>
+        <v>4523.980619065314</v>
       </c>
       <c r="V13" t="n">
-        <v>801.1676307543388</v>
+        <v>4494.224222244251</v>
       </c>
       <c r="W13" t="n">
-        <v>511.7504607173782</v>
+        <v>4494.224222244251</v>
       </c>
       <c r="X13" t="n">
-        <v>283.7609098193608</v>
+        <v>4266.234671346234</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.1980707833014</v>
+        <v>4045.442092202704</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2028.151416849785</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.885718243034</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F14" t="n">
-        <v>873.1115608551827</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G14" t="n">
-        <v>457.5933374115029</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H14" t="n">
         <v>155.4444613276153</v>
@@ -5282,16 +5282,16 @@
         <v>1014.612831184965</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.700568908834</v>
+        <v>1796.210922608275</v>
       </c>
       <c r="M14" t="n">
-        <v>2298.534633154004</v>
+        <v>2698.044986853445</v>
       </c>
       <c r="N14" t="n">
-        <v>3200.329317851334</v>
+        <v>3166.866216382911</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.637006335584</v>
+        <v>3973.217727425352</v>
       </c>
       <c r="P14" t="n">
         <v>4305.164982501233</v>
@@ -5315,7 +5315,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X14" t="n">
         <v>3173.853105830131</v>
@@ -5461,25 +5461,25 @@
         <v>1762.757492825128</v>
       </c>
       <c r="S16" t="n">
-        <v>1600.880433628976</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T16" t="n">
-        <v>1378.259449844201</v>
+        <v>1344.965892664637</v>
       </c>
       <c r="U16" t="n">
-        <v>1089.14567613979</v>
+        <v>1270.794140970029</v>
       </c>
       <c r="V16" t="n">
-        <v>834.4611879339027</v>
+        <v>1016.109652764142</v>
       </c>
       <c r="W16" t="n">
-        <v>545.044017896942</v>
+        <v>726.6924827271816</v>
       </c>
       <c r="X16" t="n">
-        <v>317.0544669989246</v>
+        <v>498.7029318291643</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.26188785539451</v>
+        <v>277.9103526856342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.113933790197</v>
+        <v>2397.113933790198</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.151416849785</v>
+        <v>2028.151416849786</v>
       </c>
       <c r="D17" t="n">
         <v>1669.885718243035</v>
@@ -5522,7 +5522,7 @@
         <v>1810.185171313779</v>
       </c>
       <c r="M17" t="n">
-        <v>2267.000837401045</v>
+        <v>2379.464265763677</v>
       </c>
       <c r="N17" t="n">
         <v>2848.285495293143</v>
@@ -5546,19 +5546,19 @@
         <v>4484.716545294154</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.150406704895</v>
+        <v>4231.150406704896</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.087519361325</v>
+        <v>3900.087519361326</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X17" t="n">
         <v>3173.853105830131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.713773854319</v>
+        <v>2783.71377385432</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>292.6837681104437</v>
       </c>
       <c r="K18" t="n">
-        <v>526.8967564225488</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L18" t="n">
-        <v>842.8385274502009</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M18" t="n">
-        <v>1230.884540401126</v>
+        <v>1200.473403972475</v>
       </c>
       <c r="N18" t="n">
-        <v>1643.60962156366</v>
+        <v>1613.198485135009</v>
       </c>
       <c r="O18" t="n">
-        <v>1998.952643239181</v>
+        <v>1968.541506810531</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.813679484683</v>
+        <v>2234.402543056032</v>
       </c>
       <c r="Q18" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R18" t="n">
         <v>2600.592059963695</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.1699815188795</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C19" t="n">
-        <v>392.1699815188795</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D19" t="n">
-        <v>392.1699815188795</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E19" t="n">
-        <v>244.2568879364864</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F19" t="n">
-        <v>244.2568879364864</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G19" t="n">
-        <v>244.2568879364864</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H19" t="n">
         <v>96.26188785539451</v>
@@ -5701,22 +5701,22 @@
         <v>1567.586876449412</v>
       </c>
       <c r="T19" t="n">
-        <v>1344.965892664637</v>
+        <v>1378.259449844201</v>
       </c>
       <c r="U19" t="n">
-        <v>1055.852118960226</v>
+        <v>1089.14567613979</v>
       </c>
       <c r="V19" t="n">
-        <v>902.3797306993702</v>
+        <v>834.4611879339027</v>
       </c>
       <c r="W19" t="n">
-        <v>612.9625606624096</v>
+        <v>545.044017896942</v>
       </c>
       <c r="X19" t="n">
-        <v>612.9625606624096</v>
+        <v>317.0544669989246</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.1699815188795</v>
+        <v>96.26188785539451</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.113933790198</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.151416849786</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D20" t="n">
         <v>1669.885718243035</v>
@@ -5756,13 +5756,13 @@
         <v>1014.612831184965</v>
       </c>
       <c r="L20" t="n">
-        <v>1810.185171313779</v>
+        <v>1421.64892580076</v>
       </c>
       <c r="M20" t="n">
-        <v>2379.464265763677</v>
+        <v>2323.482990045931</v>
       </c>
       <c r="N20" t="n">
-        <v>2848.285495293143</v>
+        <v>3225.277674743261</v>
       </c>
       <c r="O20" t="n">
         <v>3654.637006335584</v>
@@ -5783,19 +5783,19 @@
         <v>4484.716545294154</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.150406704896</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.087519361326</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X20" t="n">
         <v>3173.853105830131</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.71377385432</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J21" t="n">
-        <v>167.8536431234389</v>
+        <v>292.6837681104437</v>
       </c>
       <c r="K21" t="n">
-        <v>368.3701805684597</v>
+        <v>704.4621348523883</v>
       </c>
       <c r="L21" t="n">
-        <v>684.3119515961116</v>
+        <v>1020.40390588004</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.357964547036</v>
+        <v>1408.449918830965</v>
       </c>
       <c r="N21" t="n">
-        <v>1485.083045709571</v>
+        <v>1821.1749999935</v>
       </c>
       <c r="O21" t="n">
-        <v>1840.426067385092</v>
+        <v>2176.518021669021</v>
       </c>
       <c r="P21" t="n">
-        <v>2264.813679484683</v>
+        <v>2442.379057914522</v>
       </c>
       <c r="Q21" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R21" t="n">
         <v>2600.592059963695</v>
@@ -5935,22 +5935,22 @@
         <v>1762.757492825128</v>
       </c>
       <c r="S22" t="n">
-        <v>1567.586876449412</v>
+        <v>1600.880433628976</v>
       </c>
       <c r="T22" t="n">
-        <v>1344.965892664637</v>
+        <v>1378.259449844201</v>
       </c>
       <c r="U22" t="n">
-        <v>1055.852118960226</v>
+        <v>1089.14567613979</v>
       </c>
       <c r="V22" t="n">
-        <v>801.1676307543388</v>
+        <v>834.4611879339027</v>
       </c>
       <c r="W22" t="n">
-        <v>511.7504607173782</v>
+        <v>545.044017896942</v>
       </c>
       <c r="X22" t="n">
-        <v>283.7609098193608</v>
+        <v>317.0544669989246</v>
       </c>
       <c r="Y22" t="n">
         <v>96.26188785539451</v>
@@ -5975,10 +5975,10 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F23" t="n">
-        <v>873.111560855183</v>
+        <v>873.1115608551836</v>
       </c>
       <c r="G23" t="n">
-        <v>457.5933374115033</v>
+        <v>457.5933374115032</v>
       </c>
       <c r="H23" t="n">
         <v>155.4444613276153</v>
@@ -5993,13 +5993,13 @@
         <v>1014.612831184965</v>
       </c>
       <c r="L23" t="n">
-        <v>1396.700568908834</v>
+        <v>1810.185171313779</v>
       </c>
       <c r="M23" t="n">
-        <v>2298.534633154004</v>
+        <v>2712.01923555895</v>
       </c>
       <c r="N23" t="n">
-        <v>2848.285495293143</v>
+        <v>3180.840465088416</v>
       </c>
       <c r="O23" t="n">
         <v>3654.637006335584</v>
@@ -6026,7 +6026,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X23" t="n">
         <v>3173.853105830131</v>
@@ -6066,28 +6066,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J24" t="n">
-        <v>167.8536431234389</v>
+        <v>292.6837681104437</v>
       </c>
       <c r="K24" t="n">
-        <v>526.8967564225488</v>
+        <v>704.4621348523883</v>
       </c>
       <c r="L24" t="n">
-        <v>842.8385274502009</v>
+        <v>1020.40390588004</v>
       </c>
       <c r="M24" t="n">
-        <v>1230.884540401126</v>
+        <v>1408.449918830965</v>
       </c>
       <c r="N24" t="n">
-        <v>1643.60962156366</v>
+        <v>1821.1749999935</v>
       </c>
       <c r="O24" t="n">
-        <v>1998.952643239181</v>
+        <v>2176.518021669021</v>
       </c>
       <c r="P24" t="n">
-        <v>2264.813679484683</v>
+        <v>2442.379057914522</v>
       </c>
       <c r="Q24" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R24" t="n">
         <v>2600.592059963695</v>
@@ -6175,22 +6175,22 @@
         <v>1567.586876449412</v>
       </c>
       <c r="T25" t="n">
-        <v>1344.965892664637</v>
+        <v>1559.907914674441</v>
       </c>
       <c r="U25" t="n">
-        <v>1055.852118960226</v>
+        <v>1270.794140970029</v>
       </c>
       <c r="V25" t="n">
-        <v>801.1676307543388</v>
+        <v>1016.109652764142</v>
       </c>
       <c r="W25" t="n">
-        <v>511.7504607173782</v>
+        <v>726.6924827271816</v>
       </c>
       <c r="X25" t="n">
-        <v>283.7609098193608</v>
+        <v>498.7029318291643</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.26188785539451</v>
+        <v>277.9103526856342</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F26" t="n">
-        <v>873.1115608551836</v>
+        <v>873.1115608551831</v>
       </c>
       <c r="G26" t="n">
-        <v>457.5933374115039</v>
+        <v>457.5933374115035</v>
       </c>
       <c r="H26" t="n">
         <v>155.4444613276153</v>
@@ -6227,22 +6227,22 @@
         <v>248.0594737227673</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1171170639451</v>
+        <v>847.2071821646125</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.689457192759</v>
+        <v>1642.779522293426</v>
       </c>
       <c r="M26" t="n">
-        <v>2444.52352143793</v>
+        <v>2544.613586538597</v>
       </c>
       <c r="N26" t="n">
-        <v>2913.344750967396</v>
+        <v>3446.408271235927</v>
       </c>
       <c r="O26" t="n">
-        <v>3719.696262009837</v>
+        <v>3929.888102763142</v>
       </c>
       <c r="P26" t="n">
-        <v>4370.224238175485</v>
+        <v>4580.416078928791</v>
       </c>
       <c r="Q26" t="n">
         <v>4781.521896611468</v>
@@ -6306,25 +6306,25 @@
         <v>292.6837681104437</v>
       </c>
       <c r="K27" t="n">
-        <v>526.8967564225488</v>
+        <v>496.485619993898</v>
       </c>
       <c r="L27" t="n">
-        <v>842.8385274502009</v>
+        <v>812.42739102155</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.884540401126</v>
+        <v>1200.473403972475</v>
       </c>
       <c r="N27" t="n">
-        <v>1643.60962156366</v>
+        <v>1613.198485135009</v>
       </c>
       <c r="O27" t="n">
-        <v>1998.952643239181</v>
+        <v>1968.541506810531</v>
       </c>
       <c r="P27" t="n">
-        <v>2264.813679484683</v>
+        <v>2234.402543056032</v>
       </c>
       <c r="Q27" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R27" t="n">
         <v>2600.592059963695</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="C28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="D28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="E28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="F28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="G28" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="H28" t="n">
         <v>96.26188785539451</v>
@@ -6409,25 +6409,25 @@
         <v>1762.757492825128</v>
       </c>
       <c r="S28" t="n">
-        <v>1600.880433628976</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T28" t="n">
-        <v>1378.259449844201</v>
+        <v>1487.110335612002</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.14567613979</v>
+        <v>1197.996561907591</v>
       </c>
       <c r="V28" t="n">
-        <v>834.4611879339027</v>
+        <v>943.3120737017041</v>
       </c>
       <c r="W28" t="n">
-        <v>545.044017896942</v>
+        <v>653.8949036647434</v>
       </c>
       <c r="X28" t="n">
-        <v>317.0544669989246</v>
+        <v>425.9053527667261</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.26188785539451</v>
+        <v>425.9053527667261</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.113933790198</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.151416849786</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.885718243036</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.097465644792</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F29" t="n">
         <v>873.1115608551841</v>
       </c>
       <c r="G29" t="n">
-        <v>457.5933374115043</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H29" t="n">
         <v>155.4444613276153</v>
@@ -6473,10 +6473,10 @@
         <v>2267.000837401045</v>
       </c>
       <c r="N29" t="n">
-        <v>3166.866216382911</v>
+        <v>3168.795522098376</v>
       </c>
       <c r="O29" t="n">
-        <v>3973.217727425352</v>
+        <v>3654.637006335584</v>
       </c>
       <c r="P29" t="n">
         <v>4305.164982501233</v>
@@ -6488,25 +6488,25 @@
         <v>4813.094392769725</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.645665481112</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T29" t="n">
         <v>4484.716545294154</v>
       </c>
       <c r="U29" t="n">
-        <v>4231.150406704896</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V29" t="n">
-        <v>3900.087519361326</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.853105830132</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.71377385432</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J30" t="n">
-        <v>292.6837681104437</v>
+        <v>167.8536431234389</v>
       </c>
       <c r="K30" t="n">
-        <v>493.2003055554644</v>
+        <v>368.3701805684597</v>
       </c>
       <c r="L30" t="n">
-        <v>809.1420765831165</v>
+        <v>684.3119515961116</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.188089534041</v>
+        <v>1072.357964547036</v>
       </c>
       <c r="N30" t="n">
-        <v>1609.913170696576</v>
+        <v>1613.198485135009</v>
       </c>
       <c r="O30" t="n">
-        <v>1998.952643239181</v>
+        <v>1968.541506810531</v>
       </c>
       <c r="P30" t="n">
-        <v>2264.813679484683</v>
+        <v>2234.402543056032</v>
       </c>
       <c r="Q30" t="n">
-        <v>2600.592059963695</v>
+        <v>2570.180923535044</v>
       </c>
       <c r="R30" t="n">
         <v>2600.592059963695</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.8845933508333</v>
+        <v>290.9578815738481</v>
       </c>
       <c r="C31" t="n">
-        <v>641.9484104229264</v>
+        <v>122.0216986459412</v>
       </c>
       <c r="D31" t="n">
-        <v>491.8317710105906</v>
+        <v>122.0216986459412</v>
       </c>
       <c r="E31" t="n">
-        <v>491.8317710105906</v>
+        <v>122.0216986459412</v>
       </c>
       <c r="F31" t="n">
-        <v>491.8317710105906</v>
+        <v>122.0216986459412</v>
       </c>
       <c r="G31" t="n">
-        <v>347.5958640884122</v>
+        <v>122.0216986459412</v>
       </c>
       <c r="H31" t="n">
-        <v>199.6008640073204</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I31" t="n">
         <v>96.26188785539451</v>
@@ -6643,28 +6643,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R31" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S31" t="n">
-        <v>1663.936172007395</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T31" t="n">
-        <v>1441.31518822262</v>
+        <v>1344.965892664637</v>
       </c>
       <c r="U31" t="n">
-        <v>1441.31518822262</v>
+        <v>1055.852118960226</v>
       </c>
       <c r="V31" t="n">
-        <v>1441.31518822262</v>
+        <v>801.1676307543388</v>
       </c>
       <c r="W31" t="n">
-        <v>1441.31518822262</v>
+        <v>511.7504607173782</v>
       </c>
       <c r="X31" t="n">
-        <v>1213.325637324603</v>
+        <v>511.7504607173782</v>
       </c>
       <c r="Y31" t="n">
-        <v>992.533058181073</v>
+        <v>290.9578815738481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.113933790197</v>
+        <v>2397.113933790196</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.151416849785</v>
+        <v>2028.151416849784</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.885718243035</v>
+        <v>1669.885718243034</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F32" t="n">
         <v>873.111560855183</v>
       </c>
       <c r="G32" t="n">
-        <v>457.5933374115033</v>
+        <v>457.5933374115034</v>
       </c>
       <c r="H32" t="n">
-        <v>155.4444613276153</v>
+        <v>155.4444613276154</v>
       </c>
       <c r="I32" t="n">
         <v>96.26188785539451</v>
@@ -6707,7 +6707,7 @@
         <v>1810.185171313779</v>
       </c>
       <c r="M32" t="n">
-        <v>2379.464265763677</v>
+        <v>2267.000837401045</v>
       </c>
       <c r="N32" t="n">
         <v>2848.285495293143</v>
@@ -6734,16 +6734,16 @@
         <v>4231.150406704895</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.087519361325</v>
+        <v>3900.087519361324</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091209</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.853105830131</v>
+        <v>3173.85310583013</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.713773854319</v>
+        <v>2783.713773854318</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.8983365001468</v>
+        <v>733.8983365001471</v>
       </c>
       <c r="C34" t="n">
-        <v>621.4558944558255</v>
+        <v>621.4558944558258</v>
       </c>
       <c r="D34" t="n">
-        <v>527.8329959270754</v>
+        <v>527.8329959270757</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4136432282679</v>
+        <v>436.4136432282682</v>
       </c>
       <c r="F34" t="n">
-        <v>346.0174366139432</v>
+        <v>346.0174366139435</v>
       </c>
       <c r="G34" t="n">
-        <v>234.6083823212412</v>
+        <v>234.6083823212414</v>
       </c>
       <c r="H34" t="n">
         <v>143.1071231237348</v>
@@ -6856,13 +6856,13 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J34" t="n">
-        <v>182.8982938703333</v>
+        <v>182.8982938703332</v>
       </c>
       <c r="K34" t="n">
-        <v>419.4857520478003</v>
+        <v>419.4857520478002</v>
       </c>
       <c r="L34" t="n">
-        <v>762.2782776407254</v>
+        <v>762.2782776407255</v>
       </c>
       <c r="M34" t="n">
         <v>1131.084180701766</v>
@@ -6880,28 +6880,28 @@
         <v>2205.713616345146</v>
       </c>
       <c r="R34" t="n">
-        <v>2163.386036411</v>
+        <v>2163.386036410999</v>
       </c>
       <c r="S34" t="n">
         <v>2024.709160918869</v>
       </c>
       <c r="T34" t="n">
-        <v>1858.58191801768</v>
+        <v>1858.581918017679</v>
       </c>
       <c r="U34" t="n">
-        <v>1625.961885196853</v>
+        <v>1625.961885196854</v>
       </c>
       <c r="V34" t="n">
-        <v>1427.771137874552</v>
+        <v>1427.771137874553</v>
       </c>
       <c r="W34" t="n">
         <v>1194.847708721177</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.351898706745</v>
+        <v>1023.351898706746</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.0530604468008</v>
+        <v>859.0530604468013</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.363745293796</v>
+        <v>1984.363745293797</v>
       </c>
       <c r="C35" t="n">
-        <v>1671.89496923697</v>
+        <v>1671.894969236971</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.123011513805</v>
+        <v>1370.123011513806</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.828499799146</v>
+        <v>1040.828499799147</v>
       </c>
       <c r="F35" t="n">
-        <v>686.3363358931244</v>
+        <v>686.3363358931251</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3118533330303</v>
+        <v>327.311853333031</v>
       </c>
       <c r="H35" t="n">
-        <v>81.65671813272793</v>
+        <v>81.65671813272796</v>
       </c>
       <c r="I35" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J35" t="n">
         <v>398.1711204318186</v>
       </c>
       <c r="K35" t="n">
-        <v>676.4148704282107</v>
+        <v>997.3188288736637</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.502608152079</v>
+        <v>1379.406566597532</v>
       </c>
       <c r="M35" t="n">
-        <v>1960.336672397249</v>
+        <v>1836.222232684798</v>
       </c>
       <c r="N35" t="n">
-        <v>2429.157901926715</v>
+        <v>2305.043462214264</v>
       </c>
       <c r="O35" t="n">
-        <v>2858.517233519038</v>
+        <v>2789.936890770498</v>
       </c>
       <c r="P35" t="n">
-        <v>3440.464866936145</v>
+        <v>3440.464866936146</v>
       </c>
       <c r="Q35" t="n">
-        <v>3851.762525372128</v>
+        <v>3851.762525372129</v>
       </c>
       <c r="R35" t="n">
-        <v>3948.394277204638</v>
+        <v>3948.394277204639</v>
       </c>
       <c r="S35" t="n">
-        <v>3884.43929079961</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T35" t="n">
-        <v>3733.003911496238</v>
+        <v>3733.003911496239</v>
       </c>
       <c r="U35" t="n">
-        <v>3535.931513790566</v>
+        <v>3535.931513790567</v>
       </c>
       <c r="V35" t="n">
-        <v>3261.362367330581</v>
+        <v>3261.362367330582</v>
       </c>
       <c r="W35" t="n">
-        <v>2965.087452944053</v>
+        <v>2965.087452944054</v>
       </c>
       <c r="X35" t="n">
         <v>2648.115435566559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474333</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H36" t="n">
-        <v>95.95899810306179</v>
+        <v>95.95899810306182</v>
       </c>
       <c r="I36" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J36" t="n">
-        <v>275.3897657991419</v>
+        <v>275.389765799142</v>
       </c>
       <c r="K36" t="n">
-        <v>479.1916176825965</v>
+        <v>475.9063032441627</v>
       </c>
       <c r="L36" t="n">
-        <v>795.1333887102485</v>
+        <v>791.8480742718148</v>
       </c>
       <c r="M36" t="n">
-        <v>1183.179401661173</v>
+        <v>1179.894087222739</v>
       </c>
       <c r="N36" t="n">
         <v>1595.904482823708</v>
@@ -7075,7 +7075,7 @@
         <v>604.1618921445238</v>
       </c>
       <c r="D37" t="n">
-        <v>510.5389936157736</v>
+        <v>510.5389936157737</v>
       </c>
       <c r="E37" t="n">
         <v>419.1196409169661</v>
@@ -7084,22 +7084,22 @@
         <v>328.7234343026414</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3143800099393</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H37" t="n">
         <v>125.8131208124331</v>
       </c>
       <c r="I37" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J37" t="n">
-        <v>165.6042915590314</v>
+        <v>165.6042915590315</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1917497364983</v>
+        <v>402.1917497364985</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9842753294236</v>
+        <v>744.9842753294238</v>
       </c>
       <c r="M37" t="n">
         <v>1113.790178390464</v>
@@ -7111,31 +7111,31 @@
         <v>1807.576201541056</v>
       </c>
       <c r="P37" t="n">
-        <v>2071.850402722024</v>
+        <v>2071.850402722025</v>
       </c>
       <c r="Q37" t="n">
         <v>2188.419614033844</v>
       </c>
       <c r="R37" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.415158607566</v>
+        <v>2007.415158607567</v>
       </c>
       <c r="T37" t="n">
-        <v>1841.287915706377</v>
+        <v>1841.287915706378</v>
       </c>
       <c r="U37" t="n">
-        <v>1608.667882885551</v>
+        <v>1608.667882885552</v>
       </c>
       <c r="V37" t="n">
-        <v>1410.47713556325</v>
+        <v>1410.477135563251</v>
       </c>
       <c r="W37" t="n">
-        <v>1177.553706409875</v>
+        <v>1177.553706409876</v>
       </c>
       <c r="X37" t="n">
-        <v>1006.057896395443</v>
+        <v>1006.057896395444</v>
       </c>
       <c r="Y37" t="n">
         <v>841.7590581354992</v>
@@ -7151,7 +7151,7 @@
         <v>1984.363745293796</v>
       </c>
       <c r="C38" t="n">
-        <v>1671.894969236971</v>
+        <v>1671.89496923697</v>
       </c>
       <c r="D38" t="n">
         <v>1370.123011513806</v>
@@ -7160,52 +7160,52 @@
         <v>1040.828499799147</v>
       </c>
       <c r="F38" t="n">
-        <v>686.3363358931251</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3118533330312</v>
+        <v>327.3118533330307</v>
       </c>
       <c r="H38" t="n">
-        <v>81.65671813272792</v>
+        <v>81.6567181327279</v>
       </c>
       <c r="I38" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J38" t="n">
         <v>398.1711204318186</v>
       </c>
       <c r="K38" t="n">
-        <v>957.9490445223961</v>
+        <v>997.3188288736637</v>
       </c>
       <c r="L38" t="n">
-        <v>1753.52138465121</v>
+        <v>1379.406566597532</v>
       </c>
       <c r="M38" t="n">
-        <v>2210.337050738476</v>
+        <v>1836.222232684798</v>
       </c>
       <c r="N38" t="n">
-        <v>2679.158280267942</v>
+        <v>2305.043462214264</v>
       </c>
       <c r="O38" t="n">
-        <v>3108.517611860265</v>
+        <v>2789.936890770497</v>
       </c>
       <c r="P38" t="n">
-        <v>3440.464866936146</v>
+        <v>3440.464866936145</v>
       </c>
       <c r="Q38" t="n">
-        <v>3851.762525372129</v>
+        <v>3851.762525372128</v>
       </c>
       <c r="R38" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.394277204638</v>
       </c>
       <c r="S38" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.43929079961</v>
       </c>
       <c r="T38" t="n">
         <v>3733.003911496238</v>
       </c>
       <c r="U38" t="n">
-        <v>3535.931513790566</v>
+        <v>3535.931513790567</v>
       </c>
       <c r="V38" t="n">
         <v>3261.362367330581</v>
@@ -7245,28 +7245,28 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H39" t="n">
-        <v>95.9589981030618</v>
+        <v>95.95899810306179</v>
       </c>
       <c r="I39" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J39" t="n">
-        <v>275.389765799142</v>
+        <v>275.3897657991419</v>
       </c>
       <c r="K39" t="n">
-        <v>479.1916176825965</v>
+        <v>475.9063032441626</v>
       </c>
       <c r="L39" t="n">
-        <v>795.1333887102485</v>
+        <v>791.8480742718145</v>
       </c>
       <c r="M39" t="n">
-        <v>1183.179401661173</v>
+        <v>1179.894087222739</v>
       </c>
       <c r="N39" t="n">
-        <v>1595.904482823708</v>
+        <v>1592.619168385274</v>
       </c>
       <c r="O39" t="n">
-        <v>1951.247504499229</v>
+        <v>1947.962190060795</v>
       </c>
       <c r="P39" t="n">
         <v>2217.108540744731</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>716.6043341888451</v>
+        <v>716.6043341888458</v>
       </c>
       <c r="C40" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445245</v>
       </c>
       <c r="D40" t="n">
-        <v>510.5389936157737</v>
+        <v>510.5389936157744</v>
       </c>
       <c r="E40" t="n">
-        <v>419.1196409169663</v>
+        <v>419.1196409169669</v>
       </c>
       <c r="F40" t="n">
-        <v>328.7234343026415</v>
+        <v>328.7234343026422</v>
       </c>
       <c r="G40" t="n">
-        <v>217.3143800099395</v>
+        <v>217.3143800099398</v>
       </c>
       <c r="H40" t="n">
         <v>125.8131208124331</v>
       </c>
       <c r="I40" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J40" t="n">
         <v>165.6042915590316</v>
@@ -7345,7 +7345,7 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P40" t="n">
         <v>2071.850402722025</v>
@@ -7375,7 +7375,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y40" t="n">
-        <v>841.7590581354991</v>
+        <v>841.7590581354998</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1984.363745293797</v>
+        <v>1984.363745293795</v>
       </c>
       <c r="C41" t="n">
-        <v>1671.894969236971</v>
+        <v>1671.894969236969</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.123011513806</v>
+        <v>1370.123011513804</v>
       </c>
       <c r="E41" t="n">
-        <v>1040.828499799147</v>
+        <v>1040.828499799145</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3363358931254</v>
+        <v>686.3363358931231</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3118533330312</v>
+        <v>327.3118533330289</v>
       </c>
       <c r="H41" t="n">
-        <v>81.65671813272797</v>
+        <v>81.65671813272647</v>
       </c>
       <c r="I41" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J41" t="n">
         <v>398.1711204318186</v>
       </c>
       <c r="K41" t="n">
-        <v>926.4152487694381</v>
+        <v>997.3188288736637</v>
       </c>
       <c r="L41" t="n">
-        <v>1308.502986493306</v>
+        <v>1434.940663561442</v>
       </c>
       <c r="M41" t="n">
-        <v>2210.337050738477</v>
+        <v>1891.756329648708</v>
       </c>
       <c r="N41" t="n">
-        <v>2679.158280267943</v>
+        <v>2360.577559178173</v>
       </c>
       <c r="O41" t="n">
-        <v>3108.517611860266</v>
+        <v>2789.936890770497</v>
       </c>
       <c r="P41" t="n">
-        <v>3440.464866936146</v>
+        <v>3440.464866936145</v>
       </c>
       <c r="Q41" t="n">
-        <v>3851.762525372129</v>
+        <v>3851.762525372128</v>
       </c>
       <c r="R41" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.394277204638</v>
       </c>
       <c r="S41" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.43929079961</v>
       </c>
       <c r="T41" t="n">
-        <v>3733.003911496239</v>
+        <v>3733.003911496237</v>
       </c>
       <c r="U41" t="n">
-        <v>3535.931513790568</v>
+        <v>3535.931513790565</v>
       </c>
       <c r="V41" t="n">
-        <v>3261.362367330582</v>
+        <v>3261.36236733058</v>
       </c>
       <c r="W41" t="n">
-        <v>2965.087452944054</v>
+        <v>2965.087452944052</v>
       </c>
       <c r="X41" t="n">
-        <v>2648.115435566559</v>
+        <v>2648.115435566557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2314.469844474333</v>
+        <v>2314.469844474331</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H42" t="n">
-        <v>95.95899810306182</v>
+        <v>95.95899810306179</v>
       </c>
       <c r="I42" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J42" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121372</v>
       </c>
       <c r="K42" t="n">
-        <v>479.1916176825965</v>
+        <v>351.0761782571578</v>
       </c>
       <c r="L42" t="n">
-        <v>795.1333887102485</v>
+        <v>667.0179492848099</v>
       </c>
       <c r="M42" t="n">
-        <v>1183.179401661173</v>
+        <v>1055.063962235735</v>
       </c>
       <c r="N42" t="n">
-        <v>1595.904482823708</v>
+        <v>1467.789043398269</v>
       </c>
       <c r="O42" t="n">
-        <v>1951.247504499229</v>
+        <v>1823.13206507379</v>
       </c>
       <c r="P42" t="n">
-        <v>2217.108540744731</v>
+        <v>2247.519677173382</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R42" t="n">
         <v>2583.298057652393</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.604334188845</v>
+        <v>716.6043341888452</v>
       </c>
       <c r="C43" t="n">
-        <v>604.1618921445237</v>
+        <v>604.1618921445239</v>
       </c>
       <c r="D43" t="n">
-        <v>510.5389936157736</v>
+        <v>510.5389936157737</v>
       </c>
       <c r="E43" t="n">
-        <v>419.119640916966</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F43" t="n">
-        <v>328.7234343026413</v>
+        <v>328.7234343026414</v>
       </c>
       <c r="G43" t="n">
-        <v>217.3143800099393</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H43" t="n">
         <v>125.8131208124331</v>
       </c>
       <c r="I43" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409277</v>
       </c>
       <c r="J43" t="n">
-        <v>165.6042915590314</v>
+        <v>165.6042915590315</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1917497364984</v>
+        <v>402.1917497364985</v>
       </c>
       <c r="L43" t="n">
-        <v>744.9842753294236</v>
+        <v>744.9842753294237</v>
       </c>
       <c r="M43" t="n">
         <v>1113.790178390464</v>
       </c>
       <c r="N43" t="n">
-        <v>1480.577881140503</v>
+        <v>1480.577881140502</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.576201541057</v>
+        <v>1807.576201541056</v>
       </c>
       <c r="P43" t="n">
         <v>2071.850402722025</v>
@@ -7591,7 +7591,7 @@
         <v>2188.419614033844</v>
       </c>
       <c r="R43" t="n">
-        <v>2146.092034099698</v>
+        <v>2146.092034099697</v>
       </c>
       <c r="S43" t="n">
         <v>2007.415158607567</v>
@@ -7606,13 +7606,13 @@
         <v>1410.47713556325</v>
       </c>
       <c r="W43" t="n">
-        <v>1177.553706409875</v>
+        <v>1177.553706409876</v>
       </c>
       <c r="X43" t="n">
-        <v>1006.057896395443</v>
+        <v>1006.057896395444</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.7590581354991</v>
+        <v>841.7590581354993</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>327.3118533330307</v>
       </c>
       <c r="H44" t="n">
-        <v>81.65671813272793</v>
+        <v>81.65671813272795</v>
       </c>
       <c r="I44" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J44" t="n">
         <v>398.1711204318186</v>
@@ -7652,37 +7652,37 @@
         <v>997.3188288736637</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.406566597532</v>
+        <v>1434.940663561443</v>
       </c>
       <c r="M44" t="n">
-        <v>1836.222232684798</v>
+        <v>1891.756329648709</v>
       </c>
       <c r="N44" t="n">
-        <v>2305.043462214264</v>
+        <v>2360.577559178175</v>
       </c>
       <c r="O44" t="n">
-        <v>2789.936890770497</v>
+        <v>2789.936890770498</v>
       </c>
       <c r="P44" t="n">
-        <v>3440.464866936145</v>
+        <v>3440.464866936147</v>
       </c>
       <c r="Q44" t="n">
-        <v>3851.762525372128</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R44" t="n">
-        <v>3948.394277204638</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S44" t="n">
-        <v>3884.43929079961</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T44" t="n">
         <v>3733.003911496238</v>
       </c>
       <c r="U44" t="n">
-        <v>3535.931513790566</v>
+        <v>3535.931513790567</v>
       </c>
       <c r="V44" t="n">
-        <v>3261.362367330581</v>
+        <v>3261.362367330582</v>
       </c>
       <c r="W44" t="n">
         <v>2965.087452944053</v>
@@ -7719,28 +7719,28 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H45" t="n">
-        <v>95.95899810306179</v>
+        <v>95.95899810306182</v>
       </c>
       <c r="I45" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J45" t="n">
-        <v>275.3897657991419</v>
+        <v>150.5596408121372</v>
       </c>
       <c r="K45" t="n">
-        <v>479.1916176825965</v>
+        <v>351.0761782571579</v>
       </c>
       <c r="L45" t="n">
-        <v>795.1333887102485</v>
+        <v>667.0179492848099</v>
       </c>
       <c r="M45" t="n">
-        <v>1183.179401661173</v>
+        <v>1055.063962235735</v>
       </c>
       <c r="N45" t="n">
-        <v>1595.904482823708</v>
+        <v>1467.789043398269</v>
       </c>
       <c r="O45" t="n">
-        <v>1951.247504499229</v>
+        <v>1823.13206507379</v>
       </c>
       <c r="P45" t="n">
         <v>2217.108540744731</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.604334188845</v>
+        <v>716.6043341888451</v>
       </c>
       <c r="C46" t="n">
-        <v>604.1618921445237</v>
+        <v>604.1618921445238</v>
       </c>
       <c r="D46" t="n">
         <v>510.5389936157736</v>
       </c>
       <c r="E46" t="n">
-        <v>419.119640916966</v>
+        <v>419.1196409169661</v>
       </c>
       <c r="F46" t="n">
-        <v>328.7234343026413</v>
+        <v>328.7234343026414</v>
       </c>
       <c r="G46" t="n">
         <v>217.3143800099393</v>
@@ -7801,7 +7801,7 @@
         <v>125.8131208124331</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96788554409277</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J46" t="n">
         <v>165.6042915590315</v>
@@ -7819,10 +7819,10 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.576201541057</v>
+        <v>1807.576201541056</v>
       </c>
       <c r="P46" t="n">
-        <v>2071.850402722025</v>
+        <v>2071.850402722024</v>
       </c>
       <c r="Q46" t="n">
         <v>2188.419614033844</v>
@@ -7831,19 +7831,19 @@
         <v>2146.092034099697</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.415158607567</v>
+        <v>2007.415158607566</v>
       </c>
       <c r="T46" t="n">
-        <v>1841.287915706378</v>
+        <v>1841.287915706377</v>
       </c>
       <c r="U46" t="n">
         <v>1608.667882885552</v>
       </c>
       <c r="V46" t="n">
-        <v>1410.477135563251</v>
+        <v>1410.47713556325</v>
       </c>
       <c r="W46" t="n">
-        <v>1177.553706409876</v>
+        <v>1177.553706409875</v>
       </c>
       <c r="X46" t="n">
         <v>1006.057896395444</v>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>113.5994225885173</v>
       </c>
       <c r="O11" t="n">
-        <v>25.20036049689622</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>34.03681905766109</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.74237349398194</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>14.80335018642074</v>
@@ -8930,19 +8930,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>403.5458118176173</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>25.20036049689622</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.5994225885171</v>
       </c>
       <c r="N17" t="n">
-        <v>113.5994225885173</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>34.03681905766103</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3.318499432761143</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>14.80335018642074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,16 +9404,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>25.20036049689583</v>
       </c>
       <c r="M20" t="n">
-        <v>113.5994225885171</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.39578716861</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>160.12785439807</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.80335018642074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,16 +9641,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>81.7471036461348</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>44.88607035842978</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>160.1278543980699</v>
+        <v>213.39578716861</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.80335018642074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>223.0443367119047</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,16 +9884,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>54.66717165140653</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>34.03681905766103</v>
+        <v>3.318499432761172</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>14.80335018642074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>435.3981307599999</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>57.05267943927828</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>129.4095347731701</v>
       </c>
       <c r="O30" t="n">
-        <v>34.03681905766109</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>14.80335018642074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>113.5994225885171</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>113.5994225885173</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>56.09504743829399</v>
       </c>
       <c r="P35" t="n">
-        <v>252.5256346881072</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>3.318499432761456</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.318499432761314</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>284.3779536304903</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>56.09504743829262</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>3.318499432761399</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3.318499432761598</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>252.5256346881084</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>56.09504743829262</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.318499432761399</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>160.1278543980703</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>56.0950474382945</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>56.09504743829308</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.318499432761456</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>129.4095347731703</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>61.65995230902407</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.37436163634394</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.2237672245247</v>
@@ -23434,7 +23434,7 @@
         <v>146.5150500802809</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3055863904067</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>97.83310760955523</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>222.6788104709752</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.207442706396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,13 +23701,13 @@
         <v>97.83310760955523</v>
       </c>
       <c r="S16" t="n">
-        <v>32.96062160776833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>212.7926017897055</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.2237672245247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I19" t="n">
         <v>102.3055863904067</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>32.96062160776845</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>100.1999789455811</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>97.83310760955523</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>32.96062160776833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.9606216077681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>212.7926017897057</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.9606216077681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.2237672245247</v>
       </c>
       <c r="H28" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>102.3055863904067</v>
@@ -24649,10 +24649,10 @@
         <v>97.83310760955523</v>
       </c>
       <c r="S28" t="n">
-        <v>32.96062160776833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>140.7229985178918</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>23.43021937156814</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.0128373976397</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.3055863904067</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.83310760955523</v>
       </c>
       <c r="S31" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2226359673672</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>80375.14585613224</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
         <v>78904.04718351434</v>
       </c>
       <c r="F2" t="n">
+        <v>78904.04718351431</v>
+      </c>
+      <c r="G2" t="n">
         <v>78904.04718351434</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78904.04718351435</v>
       </c>
       <c r="H2" t="n">
         <v>78904.04718351434</v>
       </c>
       <c r="I2" t="n">
-        <v>78904.04718351435</v>
+        <v>78904.04718351431</v>
       </c>
       <c r="J2" t="n">
         <v>78904.04718351435</v>
       </c>
       <c r="K2" t="n">
-        <v>78904.04718351437</v>
+        <v>78904.04718351433</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.9425991063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44743.04277979981</v>
+        <v>44743.04277979979</v>
       </c>
       <c r="M3" t="n">
-        <v>185927.187018658</v>
+        <v>185927.1870186581</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344564.5268588549</v>
+        <v>344564.526858855</v>
       </c>
       <c r="C4" t="n">
         <v>354433.2672769093</v>
@@ -26433,31 +26433,31 @@
         <v>45961.37039859239</v>
       </c>
       <c r="H4" t="n">
+        <v>45961.37039859238</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45961.37039859238</v>
+      </c>
+      <c r="J4" t="n">
         <v>45961.37039859239</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45961.3703985924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45961.37039859236</v>
       </c>
       <c r="K4" t="n">
         <v>45961.37039859239</v>
       </c>
       <c r="L4" t="n">
-        <v>64364.73398319598</v>
+        <v>64364.73398319595</v>
       </c>
       <c r="M4" t="n">
-        <v>87047.43431376478</v>
+        <v>87047.43431376481</v>
       </c>
       <c r="N4" t="n">
+        <v>87047.43431376481</v>
+      </c>
+      <c r="O4" t="n">
+        <v>87047.43431376485</v>
+      </c>
+      <c r="P4" t="n">
         <v>87047.43431376482</v>
-      </c>
-      <c r="O4" t="n">
-        <v>87047.4343137648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>87047.4343137648</v>
       </c>
     </row>
     <row r="5">
@@ -26500,16 +26500,16 @@
         <v>99224.90149219525</v>
       </c>
       <c r="M5" t="n">
-        <v>86081.45973560592</v>
+        <v>86081.45973560594</v>
       </c>
       <c r="N5" t="n">
         <v>86081.45973560592</v>
       </c>
       <c r="O5" t="n">
-        <v>86081.45973560594</v>
+        <v>86081.45973560591</v>
       </c>
       <c r="P5" t="n">
-        <v>86081.45973560592</v>
+        <v>86081.45973560595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393240.0812980321</v>
+        <v>-393283.3070762896</v>
       </c>
       <c r="C6" t="n">
         <v>-320610.3590542427</v>
@@ -26528,40 +26528,40 @@
         <v>-320610.3590542427</v>
       </c>
       <c r="E6" t="n">
-        <v>-1136224.309206156</v>
+        <v>-1136304.312451229</v>
       </c>
       <c r="F6" t="n">
-        <v>-61580.34612795456</v>
+        <v>-61660.34937302743</v>
       </c>
       <c r="G6" t="n">
-        <v>-61580.34612795454</v>
+        <v>-61660.3493730274</v>
       </c>
       <c r="H6" t="n">
-        <v>-61580.34612795456</v>
+        <v>-61660.34937302739</v>
       </c>
       <c r="I6" t="n">
-        <v>-61580.34612795455</v>
+        <v>-61660.34937302739</v>
       </c>
       <c r="J6" t="n">
-        <v>-124640.2887270607</v>
+        <v>-124720.2919721337</v>
       </c>
       <c r="K6" t="n">
-        <v>-61580.34612795453</v>
+        <v>-61660.34937302739</v>
       </c>
       <c r="L6" t="n">
         <v>-126228.5012687627</v>
       </c>
       <c r="M6" t="n">
-        <v>-276951.9040816004</v>
+        <v>-276951.9040816005</v>
       </c>
       <c r="N6" t="n">
         <v>-91024.71706294241</v>
       </c>
       <c r="O6" t="n">
-        <v>-91024.71706294236</v>
+        <v>-91024.71706294238</v>
       </c>
       <c r="P6" t="n">
-        <v>-91024.71706294238</v>
+        <v>-91024.71706294252</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>55.92880347474974</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.92880347474974</v>
+      </c>
+      <c r="N2" t="n">
         <v>55.92880347474977</v>
-      </c>
-      <c r="M2" t="n">
-        <v>55.92880347474975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>55.92880347474978</v>
       </c>
       <c r="O2" t="n">
         <v>55.92880347474973</v>
       </c>
       <c r="P2" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
     </row>
     <row r="3">
@@ -26820,16 +26820,16 @@
         <v>1203.273598192431</v>
       </c>
       <c r="M4" t="n">
+        <v>987.0985693011598</v>
+      </c>
+      <c r="N4" t="n">
         <v>987.0985693011595</v>
       </c>
-      <c r="N4" t="n">
-        <v>987.0985693011597</v>
-      </c>
       <c r="O4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011595</v>
       </c>
       <c r="P4" t="n">
-        <v>987.0985693011596</v>
+        <v>987.09856930116</v>
       </c>
     </row>
   </sheetData>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.0842804235004</v>
+        <v>746.0842804235008</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>127.6857452116721</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>176.2716859111592</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,10 +27476,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>96.73426392931901</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.3905066363115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>336.3855457443943</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>141.1583588856375</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.10644537645052</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>24.11082120396307</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.158666233674</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>91.29540353282108</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>157.797988409253</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="N34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.92880347474977</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="N37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="C38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="D38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="E38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="F38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="G38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="H38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="I38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="T38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="U38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="V38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="W38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="X38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="C40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="D40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="E40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="F40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="G40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="H40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="I40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="J40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="K40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="L40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="M40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="N40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="O40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="P40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="R40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="S40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="T40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="U40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="V40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="W40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="X40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.92880347474978</v>
+        <v>55.92880347474977</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>55.92880347474973</v>
       </c>
       <c r="I41" t="n">
-        <v>55.92880347474973</v>
+        <v>55.9288034747512</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="C44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="D44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="E44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="F44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="G44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="H44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="I44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="T44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="U44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="V44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="W44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="X44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="C46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="D46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="E46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="F46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="G46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="H46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="I46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="J46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="K46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="L46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="M46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="N46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="O46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474892</v>
       </c>
       <c r="P46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="R46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="S46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="T46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="U46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="V46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="W46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="X46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474976</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>605.1997054968134</v>
       </c>
       <c r="L11" t="n">
-        <v>385.9472098220891</v>
+        <v>803.6084243725395</v>
       </c>
       <c r="M11" t="n">
-        <v>910.9434992375457</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N11" t="n">
-        <v>910.9037219164952</v>
+        <v>587.1562200930283</v>
       </c>
       <c r="O11" t="n">
-        <v>458.8966550345963</v>
+        <v>814.4964758004454</v>
       </c>
       <c r="P11" t="n">
         <v>657.0989658238873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.31490431115597</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K12" t="n">
         <v>202.5419570151724</v>
@@ -35504,10 +35504,10 @@
         <v>358.9323451267892</v>
       </c>
       <c r="P12" t="n">
-        <v>587.0092698980197</v>
+        <v>302.5833203157436</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.8351670500639</v>
+        <v>339.170081291931</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>605.1997054968134</v>
       </c>
       <c r="L14" t="n">
-        <v>385.9472098220891</v>
+        <v>789.4930216397064</v>
       </c>
       <c r="M14" t="n">
         <v>910.9434992375457</v>
       </c>
       <c r="N14" t="n">
-        <v>910.9037219164952</v>
+        <v>473.5567975045111</v>
       </c>
       <c r="O14" t="n">
-        <v>458.8966550345963</v>
+        <v>814.4964758004454</v>
       </c>
       <c r="P14" t="n">
-        <v>657.0989658238873</v>
+        <v>335.3002576524047</v>
       </c>
       <c r="Q14" t="n">
         <v>415.4521802383666</v>
@@ -35890,10 +35890,10 @@
         <v>803.6084243725395</v>
       </c>
       <c r="M17" t="n">
-        <v>461.4299657447132</v>
+        <v>575.0293883332303</v>
       </c>
       <c r="N17" t="n">
-        <v>587.1562200930283</v>
+        <v>473.5567975045111</v>
       </c>
       <c r="O17" t="n">
         <v>814.4964758004454</v>
@@ -35963,13 +35963,13 @@
         <v>198.4059396515648</v>
       </c>
       <c r="K18" t="n">
-        <v>236.5787760728335</v>
+        <v>202.5419570151724</v>
       </c>
       <c r="L18" t="n">
         <v>319.1331020481334</v>
       </c>
       <c r="M18" t="n">
-        <v>391.9656696473987</v>
+        <v>395.2841690801598</v>
       </c>
       <c r="N18" t="n">
         <v>416.8940213762975</v>
@@ -35984,7 +35984,7 @@
         <v>339.170081291931</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>605.1997054968134</v>
       </c>
       <c r="L20" t="n">
-        <v>803.6084243725395</v>
+        <v>411.1475703189849</v>
       </c>
       <c r="M20" t="n">
-        <v>575.0293883332303</v>
+        <v>910.9434992375457</v>
       </c>
       <c r="N20" t="n">
-        <v>473.5567975045111</v>
+        <v>910.9037219164952</v>
       </c>
       <c r="O20" t="n">
-        <v>814.4964758004454</v>
+        <v>433.6962945377001</v>
       </c>
       <c r="P20" t="n">
         <v>657.0989658238873</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.31490431115597</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K21" t="n">
-        <v>202.5419570151724</v>
+        <v>415.9377441837825</v>
       </c>
       <c r="L21" t="n">
         <v>319.1331020481334</v>
@@ -36215,13 +36215,13 @@
         <v>358.9323451267892</v>
       </c>
       <c r="P21" t="n">
-        <v>428.6743556561526</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.170081291931</v>
+        <v>129.0927935560819</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>605.1997054968134</v>
       </c>
       <c r="L23" t="n">
-        <v>385.9472098220891</v>
+        <v>803.6084243725395</v>
       </c>
       <c r="M23" t="n">
         <v>910.9434992375457</v>
       </c>
       <c r="N23" t="n">
-        <v>555.3039011506459</v>
+        <v>473.5567975045111</v>
       </c>
       <c r="O23" t="n">
-        <v>814.4964758004454</v>
+        <v>478.5823648961298</v>
       </c>
       <c r="P23" t="n">
         <v>657.0989658238873</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>72.31490431115597</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K24" t="n">
-        <v>362.6698114132423</v>
+        <v>415.9377441837825</v>
       </c>
       <c r="L24" t="n">
         <v>319.1331020481334</v>
@@ -36455,10 +36455,10 @@
         <v>268.5465012580825</v>
       </c>
       <c r="Q24" t="n">
-        <v>339.170081291931</v>
+        <v>129.0927935560819</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>153.330894815528</v>
       </c>
       <c r="K26" t="n">
-        <v>504.0986296375534</v>
+        <v>605.1997054968134</v>
       </c>
       <c r="L26" t="n">
         <v>803.6084243725395</v>
@@ -36604,16 +36604,16 @@
         <v>910.9434992375457</v>
       </c>
       <c r="N26" t="n">
-        <v>473.5567975045111</v>
+        <v>910.9037219164952</v>
       </c>
       <c r="O26" t="n">
-        <v>814.4964758004454</v>
+        <v>488.3634661891066</v>
       </c>
       <c r="P26" t="n">
         <v>657.0989658238873</v>
       </c>
       <c r="Q26" t="n">
-        <v>415.4521802383666</v>
+        <v>203.1371895784619</v>
       </c>
       <c r="R26" t="n">
         <v>31.891410260866</v>
@@ -36674,7 +36674,7 @@
         <v>198.4059396515648</v>
       </c>
       <c r="K27" t="n">
-        <v>236.5787760728335</v>
+        <v>205.8604564479336</v>
       </c>
       <c r="L27" t="n">
         <v>319.1331020481334</v>
@@ -36695,7 +36695,7 @@
         <v>339.170081291931</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>461.4299657447132</v>
       </c>
       <c r="N29" t="n">
-        <v>908.954928264511</v>
+        <v>910.9037219164952</v>
       </c>
       <c r="O29" t="n">
-        <v>814.4964758004454</v>
+        <v>490.7489739769783</v>
       </c>
       <c r="P29" t="n">
-        <v>335.3002576524047</v>
+        <v>657.0989658238873</v>
       </c>
       <c r="Q29" t="n">
         <v>415.4521802383666</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115597</v>
       </c>
       <c r="K30" t="n">
         <v>202.5419570151724</v>
@@ -36920,10 +36920,10 @@
         <v>391.9656696473987</v>
       </c>
       <c r="N30" t="n">
-        <v>416.8940213762975</v>
+        <v>546.3035561494676</v>
       </c>
       <c r="O30" t="n">
-        <v>392.9691641844503</v>
+        <v>358.9323451267892</v>
       </c>
       <c r="P30" t="n">
         <v>268.5465012580825</v>
@@ -36932,7 +36932,7 @@
         <v>339.170081291931</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>30.71831962490008</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>803.6084243725395</v>
       </c>
       <c r="M32" t="n">
-        <v>575.0293883332303</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N32" t="n">
-        <v>473.5567975045111</v>
+        <v>587.1562200930283</v>
       </c>
       <c r="O32" t="n">
         <v>814.4964758004454</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.51152122721088</v>
+        <v>87.51152122721085</v>
       </c>
       <c r="K34" t="n">
         <v>238.9772304822899</v>
@@ -37245,7 +37245,7 @@
         <v>266.9436375565336</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.7466780927471</v>
+        <v>117.746678092747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>322.4275099876018</v>
       </c>
       <c r="K35" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968134</v>
       </c>
       <c r="L35" t="n">
         <v>385.9472098220891</v>
       </c>
       <c r="M35" t="n">
-        <v>910.9434992375457</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N35" t="n">
         <v>473.5567975045111</v>
       </c>
       <c r="O35" t="n">
-        <v>433.6962945377001</v>
+        <v>489.791341975994</v>
       </c>
       <c r="P35" t="n">
-        <v>587.8258923405119</v>
+        <v>657.0989658238873</v>
       </c>
       <c r="Q35" t="n">
         <v>415.4521802383666</v>
@@ -37385,7 +37385,7 @@
         <v>198.4059396515648</v>
       </c>
       <c r="K36" t="n">
-        <v>205.8604564479339</v>
+        <v>202.5419570151724</v>
       </c>
       <c r="L36" t="n">
         <v>319.1331020481334</v>
@@ -37394,7 +37394,7 @@
         <v>391.9656696473987</v>
       </c>
       <c r="N36" t="n">
-        <v>416.8940213762975</v>
+        <v>420.2125208090588</v>
       </c>
       <c r="O36" t="n">
         <v>358.9323451267892</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721085</v>
       </c>
       <c r="K37" t="n">
         <v>238.9772304822899</v>
@@ -37482,7 +37482,7 @@
         <v>266.9436375565336</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.7466780927471</v>
+        <v>117.746678092747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>322.4275099876018</v>
       </c>
       <c r="K38" t="n">
-        <v>565.4322465561389</v>
+        <v>605.1997054968134</v>
       </c>
       <c r="L38" t="n">
-        <v>803.6084243725395</v>
+        <v>385.9472098220891</v>
       </c>
       <c r="M38" t="n">
         <v>461.4299657447132</v>
@@ -37555,10 +37555,10 @@
         <v>473.5567975045111</v>
       </c>
       <c r="O38" t="n">
-        <v>433.6962945377001</v>
+        <v>489.7913419759927</v>
       </c>
       <c r="P38" t="n">
-        <v>335.3002576524047</v>
+        <v>657.0989658238873</v>
       </c>
       <c r="Q38" t="n">
         <v>415.4521802383666</v>
@@ -37622,7 +37622,7 @@
         <v>198.4059396515648</v>
       </c>
       <c r="K39" t="n">
-        <v>205.8604564479338</v>
+        <v>202.5419570151724</v>
       </c>
       <c r="L39" t="n">
         <v>319.1331020481334</v>
@@ -37637,7 +37637,7 @@
         <v>358.9323451267892</v>
       </c>
       <c r="P39" t="n">
-        <v>268.5465012580825</v>
+        <v>271.8650006908441</v>
       </c>
       <c r="Q39" t="n">
         <v>339.170081291931</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.51152122721089</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K40" t="n">
         <v>238.9772304822899</v>
@@ -37716,7 +37716,7 @@
         <v>330.3013337379336</v>
       </c>
       <c r="P40" t="n">
-        <v>266.9436375565337</v>
+        <v>266.9436375565336</v>
       </c>
       <c r="Q40" t="n">
         <v>117.7466780927471</v>
@@ -37780,13 +37780,13 @@
         <v>322.4275099876018</v>
       </c>
       <c r="K41" t="n">
-        <v>533.579927613757</v>
+        <v>605.1997054968134</v>
       </c>
       <c r="L41" t="n">
-        <v>385.9472098220891</v>
+        <v>442.0422572603817</v>
       </c>
       <c r="M41" t="n">
-        <v>910.9434992375457</v>
+        <v>461.4299657447132</v>
       </c>
       <c r="N41" t="n">
         <v>473.5567975045111</v>
@@ -37795,7 +37795,7 @@
         <v>433.6962945377001</v>
       </c>
       <c r="P41" t="n">
-        <v>335.3002576524047</v>
+        <v>657.0989658238873</v>
       </c>
       <c r="Q41" t="n">
         <v>415.4521802383666</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115597</v>
       </c>
       <c r="K42" t="n">
-        <v>205.8604564479338</v>
+        <v>202.5419570151724</v>
       </c>
       <c r="L42" t="n">
         <v>319.1331020481334</v>
@@ -37874,13 +37874,13 @@
         <v>358.9323451267892</v>
       </c>
       <c r="P42" t="n">
-        <v>268.5465012580825</v>
+        <v>428.6743556561528</v>
       </c>
       <c r="Q42" t="n">
         <v>339.170081291931</v>
       </c>
       <c r="R42" t="n">
-        <v>30.71831962490008</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>372.5312152131719</v>
       </c>
       <c r="N43" t="n">
-        <v>370.4926290404425</v>
+        <v>370.4926290404426</v>
       </c>
       <c r="O43" t="n">
         <v>330.3013337379336</v>
@@ -38020,7 +38020,7 @@
         <v>605.1997054968134</v>
       </c>
       <c r="L44" t="n">
-        <v>385.9472098220891</v>
+        <v>442.0422572603836</v>
       </c>
       <c r="M44" t="n">
         <v>461.4299657447132</v>
@@ -38029,7 +38029,7 @@
         <v>473.5567975045111</v>
       </c>
       <c r="O44" t="n">
-        <v>489.7913419759931</v>
+        <v>433.6962945377001</v>
       </c>
       <c r="P44" t="n">
         <v>657.0989658238873</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>198.4059396515648</v>
+        <v>72.31490431115597</v>
       </c>
       <c r="K45" t="n">
-        <v>205.8604564479339</v>
+        <v>202.5419570151724</v>
       </c>
       <c r="L45" t="n">
         <v>319.1331020481334</v>
@@ -38111,7 +38111,7 @@
         <v>358.9323451267892</v>
       </c>
       <c r="P45" t="n">
-        <v>268.5465012580825</v>
+        <v>397.9560360312528</v>
       </c>
       <c r="Q45" t="n">
         <v>339.170081291931</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.51152122721085</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K46" t="n">
         <v>238.9772304822899</v>
@@ -38187,13 +38187,13 @@
         <v>370.4926290404426</v>
       </c>
       <c r="O46" t="n">
-        <v>330.3013337379336</v>
+        <v>330.3013337379328</v>
       </c>
       <c r="P46" t="n">
         <v>266.9436375565336</v>
       </c>
       <c r="Q46" t="n">
-        <v>117.746678092747</v>
+        <v>117.7466780927471</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
